--- a/outputs-HGR-r202-archive/g__Peptoniphilus_A_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Peptoniphilus_A_train.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,68 +1146,68 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_1.fasta</t>
+          <t>label_UMGS92_0.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5552783547253091</v>
+        <v>0.2941216602486742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0636674101604611</v>
+        <v>0.02563472483645782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07377736737054663</v>
+        <v>0.0709881874663949</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03164669135462218</v>
+        <v>0.0002176710491078497</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05052259437975005</v>
+        <v>0.07684444262543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003585561938108449</v>
+        <v>0.04390093372952877</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2215220200712023</v>
+        <v>0.4882923800444066</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5552783547253091</v>
+        <v>0.4882923800444066</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_13.fasta</t>
+          <t>label_UMGS92_24.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7329074106491051</v>
+        <v>0.6643161817693569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03685061453740267</v>
+        <v>0.03871801781624001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03009538938674976</v>
+        <v>0.02812920145046213</v>
       </c>
       <c r="E19" t="n">
-        <v>1.850083997336421e-05</v>
+        <v>0.0003810698181419512</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02525986703544341</v>
+        <v>0.03472586732267376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007207150574881145</v>
+        <v>0.002306369647378542</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1676610669764445</v>
+        <v>0.2314232921757467</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7329074106491051</v>
+        <v>0.6643161817693569</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1218,32 +1218,32 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_18.fasta</t>
+          <t>label_UMGS92_25.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.700125675151307</v>
+        <v>0.6925969019373238</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04083095359319959</v>
+        <v>0.04238822831026402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03640249388015773</v>
+        <v>0.01904876546887232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002447021993341436</v>
+        <v>0.001471456713381666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02796502632970988</v>
+        <v>0.03313329219283797</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004144913597651952</v>
+        <v>0.001553154907323367</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1902862352486399</v>
+        <v>0.2098082004699969</v>
       </c>
       <c r="I20" t="n">
-        <v>0.700125675151307</v>
+        <v>0.6925969019373238</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1254,32 +1254,32 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_31.fasta</t>
+          <t>label_UMGS92_28.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7182175979542129</v>
+        <v>0.5821622787901528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03834917340381463</v>
+        <v>0.01295834531748846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02993671621455233</v>
+        <v>0.08555306776745211</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001722299821948848</v>
+        <v>0.006930798143032954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02577245168889736</v>
+        <v>0.04839237768664099</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002640106588658852</v>
+        <v>0.0004660300865814799</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1833616543279151</v>
+        <v>0.2635371022086511</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7182175979542129</v>
+        <v>0.5821622787901528</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1290,32 +1290,32 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_35.fasta</t>
+          <t>label_UMGS92_38.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8188727442296593</v>
+        <v>0.6867509333650778</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02767923499431027</v>
+        <v>0.03867483675348301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01802051208693325</v>
+        <v>0.01304117889034197</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001819774979208408</v>
+        <v>0.001719380800693514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01808714441956814</v>
+        <v>0.03174421824739928</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0007578023321496251</v>
+        <v>0.0006244287739132385</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1147627869581709</v>
+        <v>0.2274450231690912</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8188727442296593</v>
+        <v>0.6867509333650778</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1326,32 +1326,32 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_39.fasta</t>
+          <t>label_UMGS92_42.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6218810846633669</v>
+        <v>0.6150106610148169</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05102192199211066</v>
+        <v>0.06318751078113768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0389062706529409</v>
+        <v>0.01192512158708064</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03149411717269809</v>
+        <v>0.001538496413502144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03299511245189742</v>
+        <v>0.03701890686392467</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00202485241569385</v>
+        <v>0.000616136913423934</v>
       </c>
       <c r="H23" t="n">
-        <v>0.221676640651292</v>
+        <v>0.270703166426114</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6218810846633669</v>
+        <v>0.6150106610148169</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1362,68 +1362,68 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_45.fasta</t>
+          <t>label_UMGS92_46.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6728388271113614</v>
+        <v>0.4256709565597062</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04554581581970352</v>
+        <v>0.02783198618849007</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03511139641582168</v>
+        <v>0.03259305228873356</v>
       </c>
       <c r="E24" t="n">
-        <v>2.845076238797222e-05</v>
+        <v>0.003455890698887886</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03144029787388616</v>
+        <v>0.05884505516415869</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0009094071834486878</v>
+        <v>0.001151105415789858</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2141258048333906</v>
+        <v>0.4504519536842338</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6728388271113614</v>
+        <v>0.4504519536842338</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_5.fasta</t>
+          <t>label_UMGS92_53.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7715774268696239</v>
+        <v>0.8621785967915202</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03409841722452498</v>
+        <v>0.01933103675270131</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03121622683128617</v>
+        <v>0.003684347995572186</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001171772594370991</v>
+        <v>0.002233574978115843</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02317613654242575</v>
+        <v>0.02768865576816975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00378710943714547</v>
+        <v>0.0003137773333912798</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1360275058355566</v>
+        <v>0.0845700103805295</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7715774268696239</v>
+        <v>0.8621785967915202</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1434,32 +1434,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_51.fasta</t>
+          <t>label_UMGS92_56.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7594905954792193</v>
+        <v>0.7457872469732807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03388085332283487</v>
+        <v>0.004743066785671282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02167047967647784</v>
+        <v>0.00779787916078529</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001082999285639603</v>
+        <v>2.445547922639795e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02253874904861418</v>
+        <v>0.03122267083022722</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0008363421238839308</v>
+        <v>0.0008453899023536874</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1604999810633304</v>
+        <v>0.2096013007997592</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7594905954792193</v>
+        <v>0.7457872469732807</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1470,32 +1470,32 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_62.fasta</t>
+          <t>label_UMGS92_57.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6171026178039757</v>
+        <v>0.8940758851642048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04805293919028332</v>
+        <v>0.0003166594818093058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02564404783785761</v>
+        <v>4.748306155705762e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>4.236807862097194e-10</v>
+        <v>1.727781573720458e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03325923221851469</v>
+        <v>0.03129668235250799</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001681979493139884</v>
+        <v>0.009453333838210889</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2742591830325479</v>
+        <v>0.06480995437392827</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6171026178039757</v>
+        <v>0.8940758851642048</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1506,32 +1506,32 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_9.fasta</t>
+          <t>label_UMGS92_59.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7646034361681389</v>
+        <v>0.583439750840671</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03537992783067678</v>
+        <v>0.008943900426097528</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03253955441053568</v>
+        <v>0.03062233751068951</v>
       </c>
       <c r="E28" t="n">
-        <v>1.237590447118981e-05</v>
+        <v>0.001257372380382505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02357591929698096</v>
+        <v>0.0573818821176167</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006037016240431519</v>
+        <v>0.001265925171784474</v>
       </c>
       <c r="H28" t="n">
-        <v>0.137851770148765</v>
+        <v>0.3170888315527584</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7646034361681389</v>
+        <v>0.583439750840671</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1542,68 +1542,68 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_0.fasta</t>
+          <t>label_UMGS92_60.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2941216602486742</v>
+        <v>0.8284283377330353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02563472483645782</v>
+        <v>0.0009394342599583189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0709881874663949</v>
+        <v>0.01318622585926946</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002176710491078497</v>
+        <v>9.959301810978787e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07684444262543</v>
+        <v>0.02927787804329</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04390093372952877</v>
+        <v>0.0006063020448309487</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4882923800444066</v>
+        <v>0.127551862757805</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4882923800444066</v>
+        <v>0.8284283377330353</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_24.fasta</t>
+          <t>label_UMGS92_64.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6643161817693569</v>
+        <v>0.7221058666888928</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03871801781624001</v>
+        <v>3.615931249722116e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02812920145046213</v>
+        <v>0.02419467493812785</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003810698181419512</v>
+        <v>3.217318234019581e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03472586732267376</v>
+        <v>0.02721139659903787</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002306369647378542</v>
+        <v>0.001035854482118177</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2314232921757467</v>
+        <v>0.2254160158061438</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6643161817693569</v>
+        <v>0.7221058666888928</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1614,32 +1614,32 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_25.fasta</t>
+          <t>label_UMGS92_65.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6925969019373238</v>
+        <v>0.7410148690163302</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04238822831026402</v>
+        <v>5.800162106651331e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01904876546887232</v>
+        <v>0.0001278051108218154</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001471456713381666</v>
+        <v>5.403799101194201e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03313329219283797</v>
+        <v>0.03800427388770176</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001553154907323367</v>
+        <v>0.01880124991219623</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2098082004699969</v>
+        <v>0.2019938004518293</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6925969019373238</v>
+        <v>0.7410148690163302</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1650,32 +1650,32 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_28.fasta</t>
+          <t>label_UMGS92_73.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5821622787901528</v>
+        <v>0.3915355936728017</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01295834531748846</v>
+        <v>1.564640728706648e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08555306776745211</v>
+        <v>0.06808295017184902</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006930798143032954</v>
+        <v>4.432254468682533e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04839237768664099</v>
+        <v>0.08960049197987442</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0004660300865814799</v>
+        <v>0.1534197147116476</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2635371022086511</v>
+        <v>0.2973456030564961</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5821622787901528</v>
+        <v>0.3915355936728017</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1686,32 +1686,32 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_38.fasta</t>
+          <t>label_UMGS92_10.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6867509333650778</v>
+        <v>0.7010597113718625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03867483675348301</v>
+        <v>0.04700759874011278</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01304117889034197</v>
+        <v>0.02705001085064957</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001719380800693514</v>
+        <v>3.7373016659639e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03174421824739928</v>
+        <v>0.03042199415503885</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0006244287739132385</v>
+        <v>0.007039034360489991</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2274450231690912</v>
+        <v>0.1874216131488297</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6867509333650778</v>
+        <v>0.7010597113718625</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1722,32 +1722,32 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_42.fasta</t>
+          <t>label_UMGS92_12.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6150106610148169</v>
+        <v>0.706851075263784</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06318751078113768</v>
+        <v>0.04669311261020147</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01192512158708064</v>
+        <v>0.02741180173203515</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001538496413502144</v>
+        <v>1.613994460995084e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03701890686392467</v>
+        <v>0.03037207928794072</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000616136913423934</v>
+        <v>0.007756023632184821</v>
       </c>
       <c r="H34" t="n">
-        <v>0.270703166426114</v>
+        <v>0.1809142934793928</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6150106610148169</v>
+        <v>0.706851075263784</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1758,68 +1758,68 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_46.fasta</t>
+          <t>label_UMGS92_14.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4256709565597062</v>
+        <v>0.6594165853248238</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02783198618849007</v>
+        <v>0.05612450847448507</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03259305228873356</v>
+        <v>0.02626315586443414</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003455890698887886</v>
+        <v>4.145912336186987e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05884505516415869</v>
+        <v>0.03653442037550086</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001151105415789858</v>
+        <v>0.00742988604061652</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4504519536842338</v>
+        <v>0.2142272980078033</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4504519536842338</v>
+        <v>0.6594165853248238</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_53.fasta</t>
+          <t>label_UMGS92_15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8621785967915202</v>
+        <v>0.7356482159293406</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01933103675270131</v>
+        <v>0.04250514491229322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003684347995572186</v>
+        <v>0.02240141600565776</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002233574978115843</v>
+        <v>2.093048789053828e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02768865576816975</v>
+        <v>0.02735558694990722</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0003137773333912798</v>
+        <v>0.006025121948455041</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0845700103805295</v>
+        <v>0.1660624212055571</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8621785967915202</v>
+        <v>0.7356482159293406</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1830,32 +1830,32 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_56.fasta</t>
+          <t>label_UMGS92_19.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7457872469732807</v>
+        <v>0.7569917997542988</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004743066785671282</v>
+        <v>0.0394408383260136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00779787916078529</v>
+        <v>0.01992272855957175</v>
       </c>
       <c r="E37" t="n">
-        <v>2.445547922639795e-06</v>
+        <v>4.779217127837027e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03122267083022722</v>
+        <v>0.02518862050135214</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0008453899023536874</v>
+        <v>0.004831959045245133</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2096013007997592</v>
+        <v>0.1536192745963908</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7457872469732807</v>
+        <v>0.7569917997542988</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1866,32 +1866,32 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_57.fasta</t>
+          <t>label_UMGS92_2.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8940758851642048</v>
+        <v>0.6554297701498101</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0003166594818093058</v>
+        <v>0.05437943288550549</v>
       </c>
       <c r="D38" t="n">
-        <v>4.748306155705762e-05</v>
+        <v>0.04639671722016074</v>
       </c>
       <c r="E38" t="n">
-        <v>1.727781573720458e-09</v>
+        <v>1.914826356220202e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03129668235250799</v>
+        <v>0.0352878677692784</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009453333838210889</v>
+        <v>0.01016581847507294</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06480995437392827</v>
+        <v>0.1983212452366102</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8940758851642048</v>
+        <v>0.6554297701498101</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1902,32 +1902,32 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_59.fasta</t>
+          <t>label_UMGS92_40.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.583439750840671</v>
+        <v>0.6842608983479653</v>
       </c>
       <c r="C39" t="n">
-        <v>0.008943900426097528</v>
+        <v>0.05206408451274928</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03062233751068951</v>
+        <v>0.01982864780629484</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001257372380382505</v>
+        <v>0.001284410319535535</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0573818821176167</v>
+        <v>0.03417882702160373</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001265925171784474</v>
+        <v>0.006550359145265369</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3170888315527584</v>
+        <v>0.2018327728465859</v>
       </c>
       <c r="I39" t="n">
-        <v>0.583439750840671</v>
+        <v>0.6842608983479653</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1938,32 +1938,32 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_60.fasta</t>
+          <t>label_UMGS92_43.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8284283377330353</v>
+        <v>0.7168787115906761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0009394342599583189</v>
+        <v>0.04647473253803033</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01318622585926946</v>
+        <v>0.01633827254088403</v>
       </c>
       <c r="E40" t="n">
-        <v>9.959301810978787e-06</v>
+        <v>0.0002111041960725847</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02927787804329</v>
+        <v>0.03011383640711877</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0006063020448309487</v>
+        <v>0.005406967350612924</v>
       </c>
       <c r="H40" t="n">
-        <v>0.127551862757805</v>
+        <v>0.1845763753766053</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8284283377330353</v>
+        <v>0.7168787115906761</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1974,32 +1974,32 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_64.fasta</t>
+          <t>label_UMGS92_47.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7221058666888928</v>
+        <v>0.6025427004494213</v>
       </c>
       <c r="C41" t="n">
-        <v>3.615931249722116e-05</v>
+        <v>0.06723931216209056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02419467493812785</v>
+        <v>0.02501963299059546</v>
       </c>
       <c r="E41" t="n">
-        <v>3.217318234019581e-08</v>
+        <v>0.001109132546447678</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02721139659903787</v>
+        <v>0.04441378729836765</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001035854482118177</v>
+        <v>0.008250055026370259</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2254160158061438</v>
+        <v>0.2514253795267072</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7221058666888928</v>
+        <v>0.6025427004494213</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2010,32 +2010,32 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_65.fasta</t>
+          <t>label_UMGS92_48.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7410148690163302</v>
+        <v>0.6814969004057168</v>
       </c>
       <c r="C42" t="n">
-        <v>5.800162106651331e-05</v>
+        <v>0.05410353777483103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001278051108218154</v>
+        <v>0.01292377927541366</v>
       </c>
       <c r="E42" t="n">
-        <v>5.403799101194201e-14</v>
+        <v>9.120076339576731e-08</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03800427388770176</v>
+        <v>0.03565459892565054</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01880124991219623</v>
+        <v>0.006246848706404593</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2019938004518293</v>
+        <v>0.2095742437112199</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7410148690163302</v>
+        <v>0.6814969004057168</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2046,32 +2046,32 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_73.fasta</t>
+          <t>label_UMGS92_50.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3915355936728017</v>
+        <v>0.7238007775396171</v>
       </c>
       <c r="C43" t="n">
-        <v>1.564640728706648e-05</v>
+        <v>0.04545981025925332</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06808295017184902</v>
+        <v>0.01406615758184647</v>
       </c>
       <c r="E43" t="n">
-        <v>4.432254468682533e-14</v>
+        <v>0.0001577994386600442</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08960049197987442</v>
+        <v>0.02959608676534195</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1534197147116476</v>
+        <v>0.005156147117980377</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2973456030564961</v>
+        <v>0.1817632212973006</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3915355936728017</v>
+        <v>0.7238007775396171</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2082,32 +2082,32 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_10.fasta</t>
+          <t>label_UMGS92_54.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7010597113718625</v>
+        <v>0.713662431802253</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04700759874011278</v>
+        <v>0.04890800361610415</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02705001085064957</v>
+        <v>0.01915793421932198</v>
       </c>
       <c r="E44" t="n">
-        <v>3.7373016659639e-08</v>
+        <v>5.864762585551768e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03042199415503885</v>
+        <v>0.03068306772282232</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007039034360489991</v>
+        <v>0.004987199710133769</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1874216131488297</v>
+        <v>0.1825427153035092</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7010597113718625</v>
+        <v>0.713662431802253</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2118,32 +2118,32 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_12.fasta</t>
+          <t>label_UMGS92_63.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.706851075263784</v>
+        <v>0.5870078336564128</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04669311261020147</v>
+        <v>0.0725127037708302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02741180173203515</v>
+        <v>0.02855756506662489</v>
       </c>
       <c r="E45" t="n">
-        <v>1.613994460995084e-06</v>
+        <v>2.229352067905476e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03037207928794072</v>
+        <v>0.04764723416891235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.007756023632184821</v>
+        <v>0.01013763448417</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1809142934793928</v>
+        <v>0.2541370288530275</v>
       </c>
       <c r="I45" t="n">
-        <v>0.706851075263784</v>
+        <v>0.5870078336564128</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2154,32 +2154,32 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_14.fasta</t>
+          <t>label_UMGS92_68.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6594165853248238</v>
+        <v>0.7135039133764287</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05612450847448507</v>
+        <v>0.05118295533842384</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02626315586443414</v>
+        <v>0.009032718856595661</v>
       </c>
       <c r="E46" t="n">
-        <v>4.145912336186987e-06</v>
+        <v>5.724938001050011e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03653442037550086</v>
+        <v>0.03288893172633263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00742988604061652</v>
+        <v>0.006505327187523429</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2142272980078033</v>
+        <v>0.1868861535141233</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6594165853248238</v>
+        <v>0.7135039133764287</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2190,32 +2190,32 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_15.fasta</t>
+          <t>label_UMGS92_71.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7356482159293406</v>
+        <v>0.6008904903218201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04250514491229322</v>
+        <v>0.08444707205555615</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02240141600565776</v>
+        <v>0.02526736207766349</v>
       </c>
       <c r="E47" t="n">
-        <v>2.093048789053828e-06</v>
+        <v>2.475513460296557e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02735558694990722</v>
+        <v>0.05468215470728551</v>
       </c>
       <c r="G47" t="n">
-        <v>0.006025121948455041</v>
+        <v>0.01480583927547467</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1660624212055571</v>
+        <v>0.2199070815621753</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7356482159293406</v>
+        <v>0.6008904903218201</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2226,32 +2226,32 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_19.fasta</t>
+          <t>label_UMGS92_16.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.7569917997542988</v>
+        <v>0.6498335050783389</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0394408383260136</v>
+        <v>0.04289470739634995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01992272855957175</v>
+        <v>0.03602877857540239</v>
       </c>
       <c r="E48" t="n">
-        <v>4.779217127837027e-06</v>
+        <v>0.0001953339587577851</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02518862050135214</v>
+        <v>0.0330378579392939</v>
       </c>
       <c r="G48" t="n">
-        <v>0.004831959045245133</v>
+        <v>6.878838447249513e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1536192745963908</v>
+        <v>0.2380091291680123</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7569917997542988</v>
+        <v>0.6498335050783389</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2262,32 +2262,32 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_2.fasta</t>
+          <t>label_UMGS92_17.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6554297701498101</v>
+        <v>0.7283642561380339</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05437943288550549</v>
+        <v>0.03382810089238052</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04639671722016074</v>
+        <v>0.03704120351424708</v>
       </c>
       <c r="E49" t="n">
-        <v>1.914826356220202e-05</v>
+        <v>1.613825828689551e-05</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0352878677692784</v>
+        <v>0.01804213624157739</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01016581847507294</v>
+        <v>1.037081211398365e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1983212452366102</v>
+        <v>0.1827071278742629</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6554297701498101</v>
+        <v>0.7283642561380339</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2298,32 +2298,32 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_40.fasta</t>
+          <t>label_UMGS92_21.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6842608983479653</v>
+        <v>0.6886369064157304</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05206408451274928</v>
+        <v>0.03714692596649039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01982864780629484</v>
+        <v>0.03696772762274603</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001284410319535535</v>
+        <v>2.80146757031618e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03417882702160373</v>
+        <v>0.02392855275799494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.006550359145265369</v>
+        <v>3.997285113892054e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2018327728465859</v>
+        <v>0.2133130884843541</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6842608983479653</v>
+        <v>0.6886369064157304</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2334,32 +2334,32 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_43.fasta</t>
+          <t>label_UMGS92_22.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.7168787115906761</v>
+        <v>0.5630720972205157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04647473253803033</v>
+        <v>0.05380682870319622</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01633827254088403</v>
+        <v>0.04646521553121753</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0002111041960725847</v>
+        <v>1.726555490069153e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03011383640711877</v>
+        <v>0.04066650113857648</v>
       </c>
       <c r="G51" t="n">
-        <v>0.005406967350612924</v>
+        <v>1.320054805191102e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1845763753766053</v>
+        <v>0.2959863107961989</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7168787115906761</v>
+        <v>0.5630720972205157</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2370,32 +2370,32 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_47.fasta</t>
+          <t>label_UMGS92_26.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6025427004494213</v>
+        <v>0.734288550368133</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06723931216209056</v>
+        <v>0.03053101980471053</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02501963299059546</v>
+        <v>0.02938818658554537</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001109132546447678</v>
+        <v>3.915340550470984e-05</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04441378729836765</v>
+        <v>0.02109071116143817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.008250055026370259</v>
+        <v>1.012967717053429e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2514253795267072</v>
+        <v>0.1846613657069512</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6025427004494213</v>
+        <v>0.734288550368133</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2406,32 +2406,32 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_48.fasta</t>
+          <t>label_UMGS92_27.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6814969004057168</v>
+        <v>0.7205350069469922</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05410353777483103</v>
+        <v>0.03221746774111119</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01292377927541366</v>
+        <v>0.03155172761560956</v>
       </c>
       <c r="E53" t="n">
-        <v>9.120076339576731e-08</v>
+        <v>0.001077592882953207</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03565459892565054</v>
+        <v>0.02140070227612178</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006246848706404593</v>
+        <v>9.93273413950187e-07</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2095742437112199</v>
+        <v>0.1932165092637982</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6814969004057168</v>
+        <v>0.7205350069469922</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2442,32 +2442,32 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_50.fasta</t>
+          <t>label_UMGS92_29.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7238007775396171</v>
+        <v>0.7867240062300875</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04545981025925332</v>
+        <v>0.02567431946127271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01406615758184647</v>
+        <v>0.02317205384391555</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001577994386600442</v>
+        <v>1.85723866365923e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02959608676534195</v>
+        <v>0.01740114682617542</v>
       </c>
       <c r="G54" t="n">
-        <v>0.005156147117980377</v>
+        <v>2.453204098483852e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1817632212973006</v>
+        <v>0.1470096559315026</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7238007775396171</v>
+        <v>0.7867240062300875</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2478,32 +2478,32 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_54.fasta</t>
+          <t>label_UMGS92_33.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.713662431802253</v>
+        <v>0.7175957724959803</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04890800361610415</v>
+        <v>0.03215497517439344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01915793421932198</v>
+        <v>0.0278861566307645</v>
       </c>
       <c r="E55" t="n">
-        <v>5.864762585551768e-05</v>
+        <v>3.671615149633758e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03068306772282232</v>
+        <v>0.02420557997453938</v>
       </c>
       <c r="G55" t="n">
-        <v>0.004987199710133769</v>
+        <v>7.391688773295152e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1825427153035092</v>
+        <v>0.1981200604039487</v>
       </c>
       <c r="I55" t="n">
-        <v>0.713662431802253</v>
+        <v>0.7175957724959803</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2514,32 +2514,32 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_63.fasta</t>
+          <t>label_UMGS92_34.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5870078336564128</v>
+        <v>0.7241148390351785</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0725127037708302</v>
+        <v>0.03159172393756512</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02855756506662489</v>
+        <v>0.0249677447223145</v>
       </c>
       <c r="E56" t="n">
-        <v>2.229352067905476e-14</v>
+        <v>0.0002041794819317348</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04764723416891235</v>
+        <v>0.02343789117361075</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01013763448417</v>
+        <v>2.276446617489677e-07</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2541370288530275</v>
+        <v>0.1956833940047377</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5870078336564128</v>
+        <v>0.7241148390351785</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2550,32 +2550,32 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_68.fasta</t>
+          <t>label_UMGS92_52.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.7135039133764287</v>
+        <v>0.784439945443174</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05118295533842384</v>
+        <v>0.02683982543120062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.009032718856595661</v>
+        <v>0.0170488743031835</v>
       </c>
       <c r="E57" t="n">
-        <v>5.724938001050011e-13</v>
+        <v>8.356645832276903e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03288893172633263</v>
+        <v>0.02387944931300717</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006505327187523429</v>
+        <v>6.939016668314337e-08</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1868861535141233</v>
+        <v>0.1477918277626223</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7135039133764287</v>
+        <v>0.784439945443174</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2586,32 +2586,32 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_71.fasta</t>
+          <t>label_UMGS92_55.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.6008904903218201</v>
+        <v>0.7490763326190573</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08444707205555615</v>
+        <v>0.03162340251805344</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02526736207766349</v>
+        <v>0.01943848695590085</v>
       </c>
       <c r="E58" t="n">
-        <v>2.475513460296557e-14</v>
+        <v>1.388958307891642e-08</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05468215470728551</v>
+        <v>0.02399103231635048</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01480583927547467</v>
+        <v>1.05280547109085e-07</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2199070815621753</v>
+        <v>0.1758706264205079</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6008904903218201</v>
+        <v>0.7490763326190573</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2622,32 +2622,32 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_16.fasta</t>
+          <t>label_UMGS92_6.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.6498335050783389</v>
+        <v>0.6258173072723906</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04289470739634995</v>
+        <v>0.0443695240328604</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03602877857540239</v>
+        <v>0.05743351600033374</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0001953339587577851</v>
+        <v>7.464462624093781e-05</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0330378579392939</v>
+        <v>0.02662076511833216</v>
       </c>
       <c r="G59" t="n">
-        <v>6.878838447249513e-07</v>
+        <v>2.811251187236248e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2380091291680123</v>
+        <v>0.2456561304379697</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6498335050783389</v>
+        <v>0.6258173072723906</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2658,32 +2658,32 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_17.fasta</t>
+          <t>label_UMGS92_61.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.7283642561380339</v>
+        <v>0.7697083295183581</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03382810089238052</v>
+        <v>0.045296986753618</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03704120351424708</v>
+        <v>0.03395581539119344</v>
       </c>
       <c r="E60" t="n">
-        <v>1.613825828689551e-05</v>
+        <v>4.00634571823e-09</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01804213624157739</v>
+        <v>0.04854857733279042</v>
       </c>
       <c r="G60" t="n">
-        <v>1.037081211398365e-06</v>
+        <v>1.316374266438776e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1827071278742629</v>
+        <v>0.10247712325503</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7283642561380339</v>
+        <v>0.7697083295183581</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2694,32 +2694,32 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_21.fasta</t>
+          <t>label_UMGS92_67.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.6886369064157304</v>
+        <v>0.6759631359097895</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03714692596649039</v>
+        <v>0.05442243219014331</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03696772762274603</v>
+        <v>0.0394381364496271</v>
       </c>
       <c r="E61" t="n">
-        <v>2.80146757031618e-06</v>
+        <v>2.225965617981193e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02392855275799494</v>
+        <v>0.01575514945700336</v>
       </c>
       <c r="G61" t="n">
-        <v>3.997285113892054e-06</v>
+        <v>4.079079302235209e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2133130884843541</v>
+        <v>0.2144170669141122</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6886369064157304</v>
+        <v>0.6759631359097895</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2730,68 +2730,68 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_22.fasta</t>
+          <t>label_UMGS92_69.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5630720972205157</v>
+        <v>0.006689480118662793</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05380682870319622</v>
+        <v>0.0491369330608647</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04646521553121753</v>
+        <v>0.05467674632683651</v>
       </c>
       <c r="E62" t="n">
-        <v>1.726555490069153e-06</v>
+        <v>2.253809426335922e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04066650113857648</v>
+        <v>0.001200853432130646</v>
       </c>
       <c r="G62" t="n">
-        <v>1.320054805191102e-06</v>
+        <v>0.746639989653152</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2959863107961989</v>
+        <v>0.1416559974083307</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5630720972205157</v>
+        <v>0.746639989653152</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A senegalensis</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_26.fasta</t>
+          <t>label_UMGS92_7.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.734288550368133</v>
+        <v>0.6524076570285942</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03053101980471053</v>
+        <v>0.04293781185738975</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02938818658554537</v>
+        <v>0.05104570925974519</v>
       </c>
       <c r="E63" t="n">
-        <v>3.915340550470984e-05</v>
+        <v>1.952658201314005e-07</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02109071116143817</v>
+        <v>0.02409388552964525</v>
       </c>
       <c r="G63" t="n">
-        <v>1.012967717053429e-06</v>
+        <v>0.0001109386492603818</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1846613657069512</v>
+        <v>0.2294038024095451</v>
       </c>
       <c r="I63" t="n">
-        <v>0.734288550368133</v>
+        <v>0.6524076570285942</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2802,68 +2802,68 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_27.fasta</t>
+          <t>label_UMGS92_72.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.7205350069469922</v>
+        <v>0.05551865924548564</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03221746774111119</v>
+        <v>0.03121288207479781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03155172761560956</v>
+        <v>0.003879204054337052</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001077592882953207</v>
+        <v>2.246519824918078e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02140070227612178</v>
+        <v>0.008966484611049413</v>
       </c>
       <c r="G64" t="n">
-        <v>9.93273413950187e-07</v>
+        <v>0.8270547355369503</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1932165092637982</v>
+        <v>0.07336803447735728</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7205350069469922</v>
+        <v>0.8270547355369503</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A senegalensis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_29.fasta</t>
+          <t>label_UMGS92_11.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.7867240062300875</v>
+        <v>0.7041741780493166</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02567431946127271</v>
+        <v>0.04654043422904585</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02317205384391555</v>
+        <v>0.03879273345435392</v>
       </c>
       <c r="E65" t="n">
-        <v>1.85723866365923e-05</v>
+        <v>2.241486465537348e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01740114682617542</v>
+        <v>0.02929529839685868</v>
       </c>
       <c r="G65" t="n">
-        <v>2.453204098483852e-07</v>
+        <v>9.166619392754705e-08</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1470096559315026</v>
+        <v>0.1811972642042087</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7867240062300875</v>
+        <v>0.7041741780493166</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2874,32 +2874,32 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_33.fasta</t>
+          <t>label_UMGS92_20.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7175957724959803</v>
+        <v>0.5949301351965938</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03215497517439344</v>
+        <v>0.06378823193081748</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0278861566307645</v>
+        <v>0.06673005213108356</v>
       </c>
       <c r="E66" t="n">
-        <v>3.671615149633758e-05</v>
+        <v>2.227739396326797e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02420557997453938</v>
+        <v>0.04478426585950746</v>
       </c>
       <c r="G66" t="n">
-        <v>7.391688773295152e-07</v>
+        <v>2.227739396326797e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1981200604039487</v>
+        <v>0.2297673148819533</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7175957724959803</v>
+        <v>0.5949301351965938</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2910,32 +2910,32 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_34.fasta</t>
+          <t>label_UMGS92_23.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.7241148390351785</v>
+        <v>0.6760923209177417</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03159172393756512</v>
+        <v>0.05475353883388255</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0249677447223145</v>
+        <v>0.02558787702754304</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0002041794819317348</v>
+        <v>2.232497937230089e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02343789117361075</v>
+        <v>0.03607977693138625</v>
       </c>
       <c r="G67" t="n">
-        <v>2.276446617489677e-07</v>
+        <v>1.26230883022213e-08</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1956833940047377</v>
+        <v>0.2074864736663358</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7241148390351785</v>
+        <v>0.6760923209177417</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2946,32 +2946,32 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_52.fasta</t>
+          <t>label_UMGS92_3.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.784439945443174</v>
+        <v>0.6210967995520776</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02683982543120062</v>
+        <v>0.06971830251612449</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0170488743031835</v>
+        <v>0.01516370719507477</v>
       </c>
       <c r="E68" t="n">
-        <v>8.356645832276903e-09</v>
+        <v>2.220641047537395e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02387944931300717</v>
+        <v>0.04662631920711752</v>
       </c>
       <c r="G68" t="n">
-        <v>6.939016668314337e-08</v>
+        <v>2.174267667942852e-07</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1477918277626223</v>
+        <v>0.2473946541028164</v>
       </c>
       <c r="I68" t="n">
-        <v>0.784439945443174</v>
+        <v>0.6210967995520776</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2982,32 +2982,32 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_55.fasta</t>
+          <t>label_UMGS92_30.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7490763326190573</v>
+        <v>0.6962358222696504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03162340251805344</v>
+        <v>0.05157993644062719</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01943848695590085</v>
+        <v>0.01964206497006608</v>
       </c>
       <c r="E69" t="n">
-        <v>1.388958307891642e-08</v>
+        <v>2.234933458137969e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02399103231635048</v>
+        <v>0.03363055868475828</v>
       </c>
       <c r="G69" t="n">
-        <v>1.05280547109085e-07</v>
+        <v>1.334267034800138e-11</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1758706264205079</v>
+        <v>0.1989116176215329</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7490763326190573</v>
+        <v>0.6962358222696504</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3018,32 +3018,32 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_6.fasta</t>
+          <t>label_UMGS92_32.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6258173072723906</v>
+        <v>0.5709519480566075</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0443695240328604</v>
+        <v>0.07990831958100435</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05743351600033374</v>
+        <v>0.02325466180414797</v>
       </c>
       <c r="E70" t="n">
-        <v>7.464462624093781e-05</v>
+        <v>2.58051463596632e-14</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02662076511833216</v>
+        <v>0.0533974067698585</v>
       </c>
       <c r="G70" t="n">
-        <v>2.811251187236248e-05</v>
+        <v>9.268792171695827e-13</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2456561304379697</v>
+        <v>0.272487663787429</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6258173072723906</v>
+        <v>0.5709519480566075</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3054,32 +3054,32 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_61.fasta</t>
+          <t>label_UMGS92_36.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7697083295183581</v>
+        <v>0.5583338119823601</v>
       </c>
       <c r="C71" t="n">
-        <v>0.045296986753618</v>
+        <v>0.08316089735907049</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03395581539119344</v>
+        <v>0.0247165855739116</v>
       </c>
       <c r="E71" t="n">
-        <v>4.00634571823e-09</v>
+        <v>2.698867989525863e-14</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04854857733279042</v>
+        <v>0.05498086628494917</v>
       </c>
       <c r="G71" t="n">
-        <v>1.316374266438776e-05</v>
+        <v>1.364604370827468e-13</v>
       </c>
       <c r="H71" t="n">
-        <v>0.10247712325503</v>
+        <v>0.2788078387995452</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7697083295183581</v>
+        <v>0.5583338119823601</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3090,32 +3090,32 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_67.fasta</t>
+          <t>label_UMGS92_37.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6759631359097895</v>
+        <v>0.7460661521352492</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05442243219014331</v>
+        <v>0.04249469742174741</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394381364496271</v>
+        <v>0.01320794728139486</v>
       </c>
       <c r="E72" t="n">
-        <v>2.225965617981193e-14</v>
+        <v>2.237520623724219e-14</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01575514945700336</v>
+        <v>0.02682343879289973</v>
       </c>
       <c r="G72" t="n">
-        <v>4.079079302235209e-06</v>
+        <v>1.351910659455926e-13</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2144170669141122</v>
+        <v>0.1714077643685513</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6759631359097895</v>
+        <v>0.7460661521352492</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3126,68 +3126,68 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_69.fasta</t>
+          <t>label_UMGS92_4.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.006689480118662793</v>
+        <v>0.7009978237200146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0491369330608647</v>
+        <v>0.04705923317563662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05467674632683651</v>
+        <v>0.04308834579354955</v>
       </c>
       <c r="E73" t="n">
-        <v>2.253809426335922e-14</v>
+        <v>2.245270192666979e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001200853432130646</v>
+        <v>0.02861526952248458</v>
       </c>
       <c r="G73" t="n">
-        <v>0.746639989653152</v>
+        <v>0.002350459999072555</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1416559974083307</v>
+        <v>0.1778888677892196</v>
       </c>
       <c r="I73" t="n">
-        <v>0.746639989653152</v>
+        <v>0.7009978237200146</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_7.fasta</t>
+          <t>label_UMGS92_41.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6524076570285942</v>
+        <v>0.7773884749870307</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04293781185738975</v>
+        <v>0.03765200244833183</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05104570925974519</v>
+        <v>0.01074820002272078</v>
       </c>
       <c r="E74" t="n">
-        <v>1.952658201314005e-07</v>
+        <v>2.240044632260817e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02409388552964525</v>
+        <v>0.02267292693602059</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001109386492603818</v>
+        <v>2.240044632260817e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2294038024095451</v>
+        <v>0.1515383956058514</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6524076570285942</v>
+        <v>0.7773884749870307</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3198,68 +3198,68 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_72.fasta</t>
+          <t>label_UMGS92_44.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.05551865924548564</v>
+        <v>0.762615040293848</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03121288207479781</v>
+        <v>0.03888607647051507</v>
       </c>
       <c r="D75" t="n">
-        <v>0.003879204054337052</v>
+        <v>0.02707619740113605</v>
       </c>
       <c r="E75" t="n">
-        <v>2.246519824918078e-14</v>
+        <v>2.246866427320007e-14</v>
       </c>
       <c r="F75" t="n">
-        <v>0.008966484611049413</v>
+        <v>0.02309317916304785</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8270547355369503</v>
+        <v>2.246866427320007e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07336803447735728</v>
+        <v>0.1483295066714082</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8270547355369503</v>
+        <v>0.762615040293848</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_11.fasta</t>
+          <t>label_UMGS92_49.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.7041741780493166</v>
+        <v>0.7364856727293456</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04654043422904585</v>
+        <v>0.04530804207978469</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03879273345435392</v>
+        <v>0.01403289734698087</v>
       </c>
       <c r="E76" t="n">
-        <v>2.241486465537348e-14</v>
+        <v>2.237624200484784e-14</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02929529839685868</v>
+        <v>0.02812974600735886</v>
       </c>
       <c r="G76" t="n">
-        <v>9.166619392754705e-08</v>
+        <v>2.237624200484784e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1811972642042087</v>
+        <v>0.1760436418364852</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7041741780493166</v>
+        <v>0.7364856727293456</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3270,32 +3270,32 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_20.fasta</t>
+          <t>label_UMGS92_58.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5949301351965938</v>
+        <v>0.7282962301416758</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06378823193081748</v>
+        <v>0.0483295134655758</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06673005213108356</v>
+        <v>0.01250417442337413</v>
       </c>
       <c r="E77" t="n">
-        <v>2.227739396326797e-14</v>
+        <v>2.237198485931647e-14</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04478426585950746</v>
+        <v>0.03020200590773476</v>
       </c>
       <c r="G77" t="n">
-        <v>2.227739396326797e-14</v>
+        <v>2.237198485931647e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2297673148819533</v>
+        <v>0.1806680760615949</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5949301351965938</v>
+        <v>0.7282962301416758</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3306,32 +3306,32 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_23.fasta</t>
+          <t>label_UMGS92_66.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6760923209177417</v>
+        <v>0.7238970111271222</v>
       </c>
       <c r="C78" t="n">
-        <v>0.05475353883388255</v>
+        <v>0.05172511004148941</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02558787702754304</v>
+        <v>0.00876063864911703</v>
       </c>
       <c r="E78" t="n">
-        <v>2.232497937230089e-14</v>
+        <v>2.235186138126032e-14</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03607977693138625</v>
+        <v>0.03227720418399292</v>
       </c>
       <c r="G78" t="n">
-        <v>1.26230883022213e-08</v>
+        <v>2.235186138126032e-14</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2074864736663358</v>
+        <v>0.1833400359982336</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6760923209177417</v>
+        <v>0.7238970111271222</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3342,466 +3342,70 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_3.fasta</t>
+          <t>label_UMGS92_70.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6210967995520776</v>
+        <v>0.2395170383656856</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06971830251612449</v>
+        <v>0.05175799056804394</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01516370719507477</v>
+        <v>0.598339812341546</v>
       </c>
       <c r="E79" t="n">
-        <v>2.220641047537395e-14</v>
+        <v>2.335184673109332e-14</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04662631920711752</v>
+        <v>0.01412246807234386</v>
       </c>
       <c r="G79" t="n">
-        <v>2.174267667942852e-07</v>
+        <v>3.245610956289661e-07</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2473946541028164</v>
+        <v>0.09626236609126157</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6210967995520776</v>
+        <v>0.598339812341546</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A harei_A</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS92_30.fasta</t>
+          <t>label_UMGS92_8.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6962358222696504</v>
+        <v>0.7758880726111418</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05157993644062719</v>
+        <v>0.03417204936314509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01964206497006608</v>
+        <v>0.02905836928770121</v>
       </c>
       <c r="E80" t="n">
-        <v>2.234933458137969e-14</v>
+        <v>2.247182694723796e-14</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03363055868475828</v>
+        <v>0.02033608843615077</v>
       </c>
       <c r="G80" t="n">
-        <v>1.334267034800138e-11</v>
+        <v>7.699946317622321e-09</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1989116176215329</v>
+        <v>0.1405454126018923</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6962358222696504</v>
+        <v>0.7758880726111418</v>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_32.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5709519480566075</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.07990831958100435</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.02325466180414797</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.58051463596632e-14</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0533974067698585</v>
-      </c>
-      <c r="G81" t="n">
-        <v>9.268792171695827e-13</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.272487663787429</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.5709519480566075</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_36.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.5583338119823601</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.08316089735907049</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0247165855739116</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.698867989525863e-14</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.05498086628494917</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.364604370827468e-13</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.2788078387995452</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.5583338119823601</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_37.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.7460661521352492</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.04249469742174741</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.01320794728139486</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.237520623724219e-14</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.02682343879289973</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.351910659455926e-13</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.1714077643685513</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.7460661521352492</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_4.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.7009978237200146</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.04705923317563662</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.04308834579354955</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2.245270192666979e-14</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.02861526952248458</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.002350459999072555</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.1778888677892196</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.7009978237200146</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_41.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.7773884749870307</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.03765200244833183</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.01074820002272078</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2.240044632260817e-14</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.02267292693602059</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2.240044632260817e-14</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.1515383956058514</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.7773884749870307</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_44.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.762615040293848</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.03888607647051507</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.02707619740113605</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2.246866427320007e-14</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.02309317916304785</v>
-      </c>
-      <c r="G86" t="n">
-        <v>2.246866427320007e-14</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.1483295066714082</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.762615040293848</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_49.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.7364856727293456</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.04530804207978469</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.01403289734698087</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.237624200484784e-14</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.02812974600735886</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.237624200484784e-14</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.1760436418364852</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.7364856727293456</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_58.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.7282962301416758</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.0483295134655758</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.01250417442337413</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.237198485931647e-14</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.03020200590773476</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2.237198485931647e-14</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.1806680760615949</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.7282962301416758</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_66.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.7238970111271222</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.05172511004148941</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.00876063864911703</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.235186138126032e-14</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.03227720418399292</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.235186138126032e-14</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.1833400359982336</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.7238970111271222</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_70.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.2395170383656856</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.05175799056804394</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.598339812341546</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.335184673109332e-14</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.01412246807234386</v>
-      </c>
-      <c r="G90" t="n">
-        <v>3.245610956289661e-07</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.09626236609126157</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.598339812341546</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A harei_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS92_8.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.7758880726111418</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.03417204936314509</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.02905836928770121</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.247182694723796e-14</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.02033608843615077</v>
-      </c>
-      <c r="G91" t="n">
-        <v>7.699946317622321e-09</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.1405454126018923</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.7758880726111418</v>
-      </c>
-      <c r="J91" t="inlineStr">
         <is>
           <t>s__Peptoniphilus_A grossensis</t>
         </is>
@@ -3813,6 +3417,724 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A harei</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A harei_A</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A lacydonensis</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A phoceensis</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A senegalensis</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_2.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3304893271847928</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09907508680836563</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1868024279507929</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.43695687846565e-14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06690934074524969</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001941972247100973</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3147818450636635</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3304893271847928</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_4.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3195022670985049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1225092042672898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1278782154609343</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.516336015158053e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06266773043965125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03183110537578101</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3355663139976871</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3355663139976871</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_7.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5677621429540783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.14218750738263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01964160165831283</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001389409866993349</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04026761053893028</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0007899425535665786</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2279617850454887</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5677621429540783</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_9.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3738118969076513</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.897502585372296e-11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.004851885698822157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.294977897996385e-14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03753433561531939</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4193568587794266</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1644450229497826</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4193568587794266</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A senegalensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_8.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6291382911675358</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06299228056107788</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02686541635307412</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0007924801047767348</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04181951864678046</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.008192851426842843</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2301991617399121</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6291382911675358</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_0.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1526045346273384</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1087530348782892</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2084166994150645</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.031284013654902e-09</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1080079614098087</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0301949336584503</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3920228349797648</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3920228349797648</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_1.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2189913550376548</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1127387112063945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1987639393210074</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.417259643690466e-10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07504949842115716</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.009350719011415723</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3851057766606448</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3851057766606448</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_3.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3283479607069381</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09329830013137957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1572644498817151</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.439217320719681e-11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05561643949249616</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001170759526203542</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3643020902368755</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3643020902368755</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS44_2.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3304893271847928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09907508680836563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1868024279507929</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.43695687846565e-14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06690934074524969</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001941972247100973</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3147818450636635</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3304893271847928</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A harei</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A harei_A</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A lacydonensis</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A phoceensis</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A senegalensis</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_3.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5435008678302059</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0449408685801071</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2129939115777238</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.273031018276322e-14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03260222012524931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.273031018276322e-14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1659621318866684</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5435008678302059</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_5.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2905752911356215</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2734218039500008</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1145733501171701</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.543161292990237e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05237004194350824</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03576154191680118</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.233297716620769</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2905752911356215</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_6.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4659862729814788</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.472457316135608e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2690440721785576</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.909580232761319e-11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07641305535509481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.511447616873581e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.188465012522288</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4659862729814788</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_0.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.351005577291566</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1042870891170516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1386857565083076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.022606842504994e-10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07172272374768535</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02617530883206627</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3081235441010625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.351005577291566</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_4.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3421660957903979</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1068838330651602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1300923657326548</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.808593149042139e-06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07396879520213302</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0247360369123563</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3221500647041486</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3421660957903979</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_8.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1748789645977152</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1746151477411097</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2224729054683952</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.951472390698828e-14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0213297126384215</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0009425972528382252</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4057606723014507</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4057606723014507</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A sp900538655</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_20298_3_36_3.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5435008678302059</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0449408685801071</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2129939115777238</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.273031018276322e-14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03260222012524931</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.273031018276322e-14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1659621318866684</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5435008678302059</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Peptoniphilus_A grossensis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3881,104 +4203,104 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_2.fasta</t>
+          <t>label_UMGS62_10.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3304893271847928</v>
+        <v>0.2941250401185758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09907508680836563</v>
+        <v>0.1172030876045772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1868024279507929</v>
+        <v>0.03438702177730856</v>
       </c>
       <c r="E2" t="n">
-        <v>3.43695687846565e-14</v>
+        <v>0.1298324850586553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06690934074524969</v>
+        <v>0.07963016671082999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001941972247100973</v>
+        <v>4.372639819805144e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3147818450636635</v>
+        <v>0.3448221987296159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3304893271847928</v>
+        <v>0.3448221987296159</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_5.fasta</t>
+          <t>label_UMGS62_6.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6119845436342078</v>
+        <v>0.04249268403414572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05969901814924034</v>
+        <v>0.02860948288434364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05187652184260084</v>
+        <v>0.004887670857740723</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005293090421274977</v>
+        <v>0.781913297561992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04084013009661942</v>
+        <v>0.01817133980961275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009033353542443303</v>
+        <v>1.122131684660973e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2260371236927608</v>
+        <v>0.1239255237300335</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6119845436342078</v>
+        <v>0.781913297561992</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_6.fasta</t>
+          <t>label_UMGS62_11.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5136227905959188</v>
+        <v>0.3729167566728566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0732113724983128</v>
+        <v>0.04255744206280096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07911142706817612</v>
+        <v>0.0402217199158435</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007041156496960316</v>
+        <v>0.1289398941998063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05857613044802173</v>
+        <v>0.05486579786213239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005033806588686294</v>
+        <v>0.001315173167194834</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2634033163039239</v>
+        <v>0.3591832161193654</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5136227905959188</v>
+        <v>0.3729167566728566</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -3989,248 +4311,248 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_4.fasta</t>
+          <t>label_UMGS62_2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3195022670985049</v>
+        <v>0.1464002283896415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1225092042672898</v>
+        <v>0.01104977433205351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1278782154609343</v>
+        <v>0.1230825707970796</v>
       </c>
       <c r="E5" t="n">
-        <v>4.516336015158053e-05</v>
+        <v>0.3425658952601051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06266773043965125</v>
+        <v>0.05639663485324583</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03183110537578101</v>
+        <v>0.03449902792911202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3355663139976871</v>
+        <v>0.2860058684387624</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3355663139976871</v>
+        <v>0.3425658952601051</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_7.fasta</t>
+          <t>label_UMGS62_3.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5677621429540783</v>
+        <v>0.01646045372655772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14218750738263</v>
+        <v>0.007715370118329882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01964160165831283</v>
+        <v>0.006668155652677334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001389409866993349</v>
+        <v>0.8282552569930484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04026761053893028</v>
+        <v>0.01540966268449051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0007899425535665786</v>
+        <v>0.002370526956094139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2279617850454887</v>
+        <v>0.123120573868802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5677621429540783</v>
+        <v>0.8282552569930484</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_9.fasta</t>
+          <t>label_UMGS62_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3738118969076513</v>
+        <v>0.03217065359935707</v>
       </c>
       <c r="C7" t="n">
-        <v>4.897502585372296e-11</v>
+        <v>0.03002969410577713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004851885698822157</v>
+        <v>0.01732928156058049</v>
       </c>
       <c r="E7" t="n">
-        <v>2.294977897996385e-14</v>
+        <v>0.7683941291140783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03753433561531939</v>
+        <v>0.01963257808741595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4193568587794266</v>
+        <v>0.005471467731646116</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1644450229497826</v>
+        <v>0.126972195801145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4193568587794266</v>
+        <v>0.7683941291140783</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_8.fasta</t>
+          <t>label_UMGS62_7.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6291382911675358</v>
+        <v>0.03686624391540917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06299228056107788</v>
+        <v>0.02962176880178497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02686541635307412</v>
+        <v>0.009406067013875334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007924801047767348</v>
+        <v>0.762224713317688</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04181951864678046</v>
+        <v>0.01918182671015384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008192851426842843</v>
+        <v>0.004336933194954592</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2301991617399121</v>
+        <v>0.138362447046134</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6291382911675358</v>
+        <v>0.762224713317688</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_0.fasta</t>
+          <t>label_UMGS62_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1526045346273384</v>
+        <v>0.1480356361163061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1087530348782892</v>
+        <v>0.02471754126545487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2084166994150645</v>
+        <v>0.01596551695078617</v>
       </c>
       <c r="E9" t="n">
-        <v>1.031284013654902e-09</v>
+        <v>0.6886306139672853</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1080079614098087</v>
+        <v>0.01593240792716425</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0301949336584503</v>
+        <v>0.003418900523319031</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3920228349797648</v>
+        <v>0.1032993832496844</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3920228349797648</v>
+        <v>0.6886306139672853</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_1.fasta</t>
+          <t>label_UMGS62_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2189913550376548</v>
+        <v>0.0132475268281388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1127387112063945</v>
+        <v>0.02053666101031248</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1987639393210074</v>
+        <v>0.01856656106424904</v>
       </c>
       <c r="E10" t="n">
-        <v>3.417259643690466e-10</v>
+        <v>0.7935199179848155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07504949842115716</v>
+        <v>0.02076328425407882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009350719011415723</v>
+        <v>0.0002800121025333151</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3851057766606448</v>
+        <v>0.1330860367558721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3851057766606448</v>
+        <v>0.7935199179848155</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_3.fasta</t>
+          <t>label_UMGS62_10.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3283479607069381</v>
+        <v>0.2941250401185758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09329830013137957</v>
+        <v>0.1172030876045772</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1572644498817151</v>
+        <v>0.03438702177730856</v>
       </c>
       <c r="E11" t="n">
-        <v>2.439217320719681e-11</v>
+        <v>0.1298324850586553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05561643949249616</v>
+        <v>0.07963016671082999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001170759526203542</v>
+        <v>4.372639819805144e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3643020902368755</v>
+        <v>0.3448221987296159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3643020902368755</v>
+        <v>0.3448221987296159</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -4241,1040 +4563,34 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS44_2.fasta</t>
+          <t>label_UMGS62_6.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3304893271847928</v>
+        <v>0.04249268403414572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09907508680836563</v>
+        <v>0.02860948288434364</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1868024279507929</v>
+        <v>0.004887670857740723</v>
       </c>
       <c r="E12" t="n">
-        <v>3.43695687846565e-14</v>
+        <v>0.781913297561992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06690934074524969</v>
+        <v>0.01817133980961275</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001941972247100973</v>
+        <v>1.122131684660973e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3147818450636635</v>
+        <v>0.1239255237300335</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3304893271847928</v>
+        <v>0.781913297561992</v>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A harei</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A harei_A</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A phoceensis</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_3.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5435008678302059</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0449408685801071</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2129939115777238</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.273031018276322e-14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03260222012524931</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.273031018276322e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1659621318866684</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5435008678302059</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_1.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2513012258240786</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1210724063095998</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.145545108150642</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.059452350255578e-05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.08806220050962814</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0673106184447422</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3266678462378066</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3266678462378066</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_2.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.17859552047424</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1415522371197178</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1473750224765006</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0004319700260820397</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0942339546192273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.09254405046945997</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3452672448147724</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3452672448147724</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_7.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4404097956975047</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09221882450443017</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09330786371280426</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.618511789871721e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0585185886467528</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0006051291937270424</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3149397982447449</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4404097956975047</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_5.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2905752911356215</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2734218039500008</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1145733501171701</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.543161292990237e-07</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.05237004194350824</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.03576154191680118</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.233297716620769</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2905752911356215</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_6.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.4659862729814788</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.472457316135608e-06</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2690440721785576</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.909580232761319e-11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07641305535509481</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.511447616873581e-05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.188465012522288</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4659862729814788</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_0.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.351005577291566</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1042870891170516</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1386857565083076</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.022606842504994e-10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.07172272374768535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.02617530883206627</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3081235441010625</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.351005577291566</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_4.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3421660957903979</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1068838330651602</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1300923657326548</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.808593149042139e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07396879520213302</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0247360369123563</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3221500647041486</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3421660957903979</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_8.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1748789645977152</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1746151477411097</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2224729054683952</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.951472390698828e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0213297126384215</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0009425972528382252</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4057606723014507</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4057606723014507</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_36_3.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5435008678302059</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0449408685801071</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2129939115777238</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.273031018276322e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.03260222012524931</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.273031018276322e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1659621318866684</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5435008678302059</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A harei</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A harei_A</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A phoceensis</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_10.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2941250401185758</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1172030876045772</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03438702177730856</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1298324850586553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.07963016671082999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.372639819805144e-13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3448221987296159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3448221987296159</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_6.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.04249268403414572</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02860948288434364</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.004887670857740723</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.781913297561992</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01817133980961275</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.122131684660973e-09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1239255237300335</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.781913297561992</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_0.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.00553277109915255</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02686092755717187</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01419662104715578</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8138898672751081</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01331300715505339</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007591115984376656</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1186156898819815</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8138898672751081</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_4.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.008748144106277047</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04394341057463553</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01993719806548567</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6798484808123895</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02358747837219047</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.009769606796785353</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2141656812722366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6798484808123895</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_8.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.07849367440714221</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03634646129198599</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03003791995017281</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6530546138871672</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02182153062611734</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.004647049417704533</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1755987504197099</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.6530546138871672</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_11.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3729167566728566</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04255744206280096</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0402217199158435</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1289398941998063</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.05486579786213239</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.001315173167194834</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.3591832161193654</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3729167566728566</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_2.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1464002283896415</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01104977433205351</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1230825707970796</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3425658952601051</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.05639663485324583</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.03449902792911202</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.2860058684387624</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3425658952601051</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_3.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01646045372655772</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007715370118329882</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.006668155652677334</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8282552569930484</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01540966268449051</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.002370526956094139</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.123120573868802</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8282552569930484</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_1.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03217065359935707</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03002969410577713</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01732928156058049</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7683941291140783</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01963257808741595</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.005471467731646116</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.126972195801145</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7683941291140783</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_7.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03686624391540917</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02962176880178497</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.009406067013875334</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.762224713317688</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01918182671015384</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.004336933194954592</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.138362447046134</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.762224713317688</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_9.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1480356361163061</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02471754126545487</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01596551695078617</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6886306139672853</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.01593240792716425</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.003418900523319031</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1032993832496844</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6886306139672853</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_5.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0132475268281388</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02053666101031248</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01856656106424904</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7935199179848155</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.02076328425407882</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0002800121025333151</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1330860367558721</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.7935199179848155</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_10.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2941250401185758</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1172030876045772</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.03438702177730856</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1298324850586553</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.07963016671082999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.372639819805144e-13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.3448221987296159</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3448221987296159</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS62_6.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.04249268403414572</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02860948288434364</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.004887670857740723</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.781913297561992</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01817133980961275</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.122131684660973e-09</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1239255237300335</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.781913297561992</v>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
@@ -5291,7 +4607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5390,32 +4706,32 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001517665_0.fasta</t>
+          <t>label_GCF_001517665_6.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02322823917807072</v>
+        <v>0.1024424645272565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09528896070692527</v>
+        <v>0.1035596455713792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02453162771144976</v>
+        <v>0.08195166515416237</v>
       </c>
       <c r="E3" t="n">
-        <v>2.221193236710622e-14</v>
+        <v>0.08659626009388034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04120365275915074</v>
+        <v>0.0994770162142968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2829549366386812</v>
+        <v>0.09888656082097362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5327925830057001</v>
+        <v>0.4270863876180512</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5327925830057001</v>
+        <v>0.4270863876180512</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -5426,214 +4742,142 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001517665_2.fasta</t>
+          <t>label_GCF_001517665_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1796253361222908</v>
+        <v>0.3484702328957844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1190983420144504</v>
+        <v>0.1048031099441612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09437163433725874</v>
+        <v>0.05612615109241882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2106186604155631</v>
+        <v>0.07091712663493185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06723537474855779</v>
+        <v>0.07216499113482518</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03916449666584843</v>
+        <v>0.01574959496902741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2898861556960308</v>
+        <v>0.3317687933288511</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2898861556960308</v>
+        <v>0.3484702328957844</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001517665_6.fasta</t>
+          <t>label_GCF_001517665_1.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1024424645272565</v>
+        <v>0.03845710908175459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1035596455713792</v>
+        <v>0.1056918874587797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08195166515416237</v>
+        <v>0.09668581915134546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08659626009388034</v>
+        <v>2.874326388891046e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0994770162142968</v>
+        <v>0.003740635731355586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09888656082097362</v>
+        <v>0.4668970872845084</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4270863876180512</v>
+        <v>0.2885274612922277</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4270863876180512</v>
+        <v>0.4668970872845084</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A senegalensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001517665_3.fasta</t>
+          <t>label_GCF_001517665_5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3484702328957844</v>
+        <v>0.07863125227289929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1048031099441612</v>
+        <v>0.1147640035240265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05612615109241882</v>
+        <v>0.1464421965343949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07091712663493185</v>
+        <v>0.0003426809319658126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07216499113482518</v>
+        <v>0.1452812343123167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01574959496902741</v>
+        <v>0.1226091013922403</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3317687933288511</v>
+        <v>0.3919295310321566</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3484702328957844</v>
+        <v>0.3919295310321566</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001517665_1.fasta</t>
+          <t>label_GCF_001517665_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03845710908175459</v>
+        <v>0.205463010121227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1056918874587797</v>
+        <v>0.1637049392419215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09668581915134546</v>
+        <v>0.09664482132944045</v>
       </c>
       <c r="E7" t="n">
-        <v>2.874326388891046e-14</v>
+        <v>6.772086844141628e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003740635731355586</v>
+        <v>0.1317949798790838</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4668970872845084</v>
+        <v>0.0006908699121415551</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2885274612922277</v>
+        <v>0.401701379516118</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4668970872845084</v>
+        <v>0.401701379516118</v>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001517665_5.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.07863125227289929</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1147640035240265</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1464421965343949</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0003426809319658126</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1452812343123167</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1226091013922403</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3919295310321566</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3919295310321566</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001517665_4.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.205463010121227</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1637049392419215</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.09664482132944045</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.772086844141628e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1317949798790838</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0006908699121415551</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.401701379516118</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.401701379516118</v>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>s__Peptoniphilus_A sp900538655</t>
         </is>
@@ -5901,7 +5145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6288,140 +5532,140 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_0.fasta</t>
+          <t>label_UMGS45_15.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1152127552380097</v>
+        <v>0.4514567196910587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1286563947405047</v>
+        <v>0.02501341260287735</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0917162249460136</v>
+        <v>0.02719304024545183</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001603032386339174</v>
+        <v>0.005533210705403496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07704679622828629</v>
+        <v>0.05819538139344696</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1564551452908821</v>
+        <v>0.005596376379146512</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4307523803176697</v>
+        <v>0.4270118589826151</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4307523803176697</v>
+        <v>0.4514567196910587</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_1.fasta</t>
+          <t>label_UMGS45_21.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1057401062443743</v>
+        <v>0.4985463815734384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1349700801180666</v>
+        <v>0.03267847421199073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09499264354142402</v>
+        <v>0.01907429440990957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1035364443287569</v>
+        <v>0.0008949555551001907</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07880557125867545</v>
+        <v>0.04752814601371407</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09456612821148677</v>
+        <v>0.00188484837914725</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3873890262972159</v>
+        <v>0.3993928998566997</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3873890262972159</v>
+        <v>0.4985463815734384</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_10.fasta</t>
+          <t>label_UMGS45_26.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3027406838835803</v>
+        <v>0.6298957135506301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1029668483411978</v>
+        <v>0.06284079255724391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07033108939602351</v>
+        <v>0.01168659426494022</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004268292129172045</v>
+        <v>0.00107983717043604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0693267216631482</v>
+        <v>0.03179261759059702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02037383343450427</v>
+        <v>0.000548839152664138</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4338339940686286</v>
+        <v>0.2621556057134885</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4338339940686286</v>
+        <v>0.6298957135506301</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_12.fasta</t>
+          <t>label_UMGS45_30.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2246573153813712</v>
+        <v>0.3018537130053753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09986275301539249</v>
+        <v>0.001617061975090664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05857084455506893</v>
+        <v>0.1083235596634186</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2131623058694776</v>
+        <v>6.816372649930958e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05897830519818704</v>
+        <v>0.08515452026373907</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01019286865412971</v>
+        <v>0.001933391025098991</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3345756073263731</v>
+        <v>0.5011109376946276</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3345756073263731</v>
+        <v>0.5011109376946276</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -6432,32 +5676,32 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_29.fasta</t>
+          <t>label_UMGS45_37.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4272211707716658</v>
+        <v>0.6163124008743881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07464478901960332</v>
+        <v>0.004530800875911585</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05284601313544568</v>
+        <v>0.02499574018386554</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08184143171321966</v>
+        <v>1.444537384398353e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04961593446753931</v>
+        <v>0.07562375043768467</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00317373951372116</v>
+        <v>0.006012812029412041</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3106569213788052</v>
+        <v>0.272510050224894</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4272211707716658</v>
+        <v>0.6163124008743881</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -6468,32 +5712,32 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_3.fasta</t>
+          <t>label_UMGS45_9.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2026514463504575</v>
+        <v>0.2578796004536246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1115363649425481</v>
+        <v>0.07175335196846587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07509703633194974</v>
+        <v>0.03393810979209045</v>
       </c>
       <c r="E16" t="n">
-        <v>1.815267891264558e-06</v>
+        <v>0.001380301020495734</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06173337757132959</v>
+        <v>0.08418096881114535</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1255283040058713</v>
+        <v>0.01504100099531134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4234516555299524</v>
+        <v>0.5358266669588667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4234516555299524</v>
+        <v>0.5358266669588667</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -6504,104 +5748,104 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_33.fasta</t>
+          <t>label_UMGS45_11.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.540004353469177</v>
+        <v>0.3102515716822113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07855502582180414</v>
+        <v>0.1277874766787191</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04969632196253581</v>
+        <v>0.06380866998446798</v>
       </c>
       <c r="E17" t="n">
-        <v>1.853334605906588e-05</v>
+        <v>0.0003019679181061647</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05932656224116516</v>
+        <v>0.08942972385888838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001048977438448798</v>
+        <v>0.02607792974447008</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2713502257208101</v>
+        <v>0.382342660133137</v>
       </c>
       <c r="I17" t="n">
-        <v>0.540004353469177</v>
+        <v>0.382342660133137</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_35.fasta</t>
+          <t>label_UMGS45_2.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2884305610615269</v>
+        <v>0.3514811404929592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.119624129836547</v>
+        <v>0.1101262333443708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1345347217188461</v>
+        <v>0.09956457435456252</v>
       </c>
       <c r="E18" t="n">
-        <v>3.491304222628363e-14</v>
+        <v>2.785099169680793e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07308385544004081</v>
+        <v>0.07587779043230124</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00276793135773093</v>
+        <v>0.02952658394803189</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3815588005852733</v>
+        <v>0.3334233989178573</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3815588005852733</v>
+        <v>0.3514811404929592</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_36.fasta</t>
+          <t>label_UMGS45_24.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.794469640338628</v>
+        <v>0.5387256630407007</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03849570135246907</v>
+        <v>0.08085359015875734</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0177405240459616</v>
+        <v>0.0298890168010915</v>
       </c>
       <c r="E19" t="n">
-        <v>3.231886708201042e-06</v>
+        <v>0.0008129505038207703</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0248581727496097</v>
+        <v>0.0528755903617916</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001607065848713427</v>
+        <v>0.009277100274405641</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12282566377791</v>
+        <v>0.2875660888594324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.794469640338628</v>
+        <v>0.5387256630407007</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -6612,32 +5856,32 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_38.fasta</t>
+          <t>label_UMGS45_27.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8378981111803696</v>
+        <v>0.5616180528012497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03456601915845953</v>
+        <v>0.07364678273165165</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01254530276934085</v>
+        <v>0.03086305305810567</v>
       </c>
       <c r="E20" t="n">
-        <v>2.819096185985294e-11</v>
+        <v>0.008388035828141602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02092879731118163</v>
+        <v>0.04905590007820831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002836624624656996</v>
+        <v>0.01033197556888959</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09122514492780033</v>
+        <v>0.2660961999337536</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8378981111803696</v>
+        <v>0.5616180528012497</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -6648,32 +5892,32 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_15.fasta</t>
+          <t>label_UMGS45_28.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4514567196910587</v>
+        <v>0.494107970693155</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02501341260287735</v>
+        <v>0.08300096719821422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02719304024545183</v>
+        <v>0.049541692078658</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005533210705403496</v>
+        <v>0.03136454127803828</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05819538139344696</v>
+        <v>0.05554039744972791</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005596376379146512</v>
+        <v>0.01033179339855209</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4270118589826151</v>
+        <v>0.2761126379036545</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4514567196910587</v>
+        <v>0.494107970693155</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -6684,140 +5928,140 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_21.fasta</t>
+          <t>label_UMGS45_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4985463815734384</v>
+        <v>0.2498400092100727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03267847421199073</v>
+        <v>0.1428431993975854</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01907429440990957</v>
+        <v>0.06828946413853124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0008949555551001907</v>
+        <v>8.920158530170583e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04752814601371407</v>
+        <v>0.1016833855131956</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00188484837914725</v>
+        <v>0.03261265106789083</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3993928998566997</v>
+        <v>0.4047303986568711</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4985463815734384</v>
+        <v>0.4047303986568711</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_26.fasta</t>
+          <t>label_UMGS45_6.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6298957135506301</v>
+        <v>0.29433343916321</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06284079255724391</v>
+        <v>0.1327035273417021</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01168659426494022</v>
+        <v>0.06619222519815295</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00107983717043604</v>
+        <v>0.0001750648663238913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03179261759059702</v>
+        <v>0.09300502752237469</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000548839152664138</v>
+        <v>0.02894645161639208</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2621556057134885</v>
+        <v>0.3846442642918445</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6298957135506301</v>
+        <v>0.3846442642918445</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_30.fasta</t>
+          <t>label_UMGS45_8.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3018537130053753</v>
+        <v>0.4152969559657705</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001617061975090664</v>
+        <v>0.1014878637227606</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1083235596634186</v>
+        <v>0.06524196489987516</v>
       </c>
       <c r="E24" t="n">
-        <v>6.816372649930958e-06</v>
+        <v>5.873748958907368e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08515452026373907</v>
+        <v>0.06943269950886073</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001933391025098991</v>
+        <v>0.02172698850262764</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5011109376946276</v>
+        <v>0.3267547899105162</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5011109376946276</v>
+        <v>0.4152969559657705</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_37.fasta</t>
+          <t>label_UMGS45_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6163124008743881</v>
+        <v>0.6322927301701615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004530800875911585</v>
+        <v>0.04599691344911903</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02499574018386554</v>
+        <v>0.03645183845926906</v>
       </c>
       <c r="E25" t="n">
-        <v>1.444537384398353e-05</v>
+        <v>0.0002208979088312446</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07562375043768467</v>
+        <v>0.03418929416120015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006012812029412041</v>
+        <v>2.128807834001256e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.272510050224894</v>
+        <v>0.2508481129706356</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6163124008743881</v>
+        <v>0.6322927301701615</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -6828,32 +6072,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_9.fasta</t>
+          <t>label_UMGS45_18.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2578796004536246</v>
+        <v>0.2189834764514868</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07175335196846587</v>
+        <v>0.1198190378144379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03393810979209045</v>
+        <v>0.09064714591235726</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001380301020495734</v>
+        <v>5.356596812411011e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08418096881114535</v>
+        <v>0.08779975490683604</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01504100099531134</v>
+        <v>8.22401324099847e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5358266669588667</v>
+        <v>0.482688794933517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5358266669588667</v>
+        <v>0.482688794933517</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -6864,32 +6108,32 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_11.fasta</t>
+          <t>label_UMGS45_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3102515716822113</v>
+        <v>0.3608135321231688</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1277874766787191</v>
+        <v>0.08677472315423579</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06380866998446798</v>
+        <v>0.07881437964282394</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003019679181061647</v>
+        <v>3.301806879321113e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08942972385888838</v>
+        <v>0.08614239498744029</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02607792974447008</v>
+        <v>2.219191708638482e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.382342660133137</v>
+        <v>0.3873997601064516</v>
       </c>
       <c r="I27" t="n">
-        <v>0.382342660133137</v>
+        <v>0.3873997601064516</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -6900,32 +6144,32 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_2.fasta</t>
+          <t>label_UMGS45_20.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3514811404929592</v>
+        <v>0.4787223989834287</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1101262333443708</v>
+        <v>0.0642620738679423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09956457435456252</v>
+        <v>0.06224712974048528</v>
       </c>
       <c r="E28" t="n">
-        <v>2.785099169680793e-07</v>
+        <v>0.0006347811812007145</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07587779043230124</v>
+        <v>0.05561721432687404</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02952658394803189</v>
+        <v>2.511699490304187e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3334233989178573</v>
+        <v>0.3384912849051659</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3514811404929592</v>
+        <v>0.4787223989834287</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -6936,68 +6180,68 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_24.fasta</t>
+          <t>label_UMGS45_22.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5387256630407007</v>
+        <v>0.2968319710742612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08085359015875734</v>
+        <v>0.09599254743536476</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0298890168010915</v>
+        <v>0.07883065593120496</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0008129505038207703</v>
+        <v>0.02565432646253854</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0528755903617916</v>
+        <v>0.0756462748665562</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009277100274405641</v>
+        <v>6.17973637678906e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2875660888594324</v>
+        <v>0.4270380444936977</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5387256630407007</v>
+        <v>0.4270380444936977</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A sp900538655</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_27.fasta</t>
+          <t>label_UMGS45_23.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5616180528012497</v>
+        <v>0.4275749864990882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07364678273165165</v>
+        <v>0.07444698986122336</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03086305305810567</v>
+        <v>0.06251054560554052</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008388035828141602</v>
+        <v>0.0003778251639335494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04905590007820831</v>
+        <v>0.06489024707105336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01033197556888959</v>
+        <v>4.781896570304197e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2660961999337536</v>
+        <v>0.3701946239025908</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5616180528012497</v>
+        <v>0.4275749864990882</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -7008,104 +6252,104 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_28.fasta</t>
+          <t>label_UMGS45_39.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.494107970693155</v>
+        <v>0.009961378121334933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08300096719821422</v>
+        <v>0.03821591515891305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.049541692078658</v>
+        <v>0.02923645342773027</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03136454127803828</v>
+        <v>2.249642484368448e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05554039744972791</v>
+        <v>0.0009875611056822439</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01033179339855209</v>
+        <v>0.7946510262123113</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2761126379036545</v>
+        <v>0.1269476659740056</v>
       </c>
       <c r="I31" t="n">
-        <v>0.494107970693155</v>
+        <v>0.7946510262123113</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A senegalensis</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_5.fasta</t>
+          <t>label_UMGS45_13.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2498400092100727</v>
+        <v>0.5455929109821354</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1428431993975854</v>
+        <v>0.08812938286054654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06828946413853124</v>
+        <v>0.01650646283714592</v>
       </c>
       <c r="E32" t="n">
-        <v>8.920158530170583e-07</v>
+        <v>2.917395523475559e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1016833855131956</v>
+        <v>0.05918233655202902</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03261265106789083</v>
+        <v>1.418025122694431e-07</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4047303986568711</v>
+        <v>0.2905887649656017</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4047303986568711</v>
+        <v>0.5455929109821354</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_6.fasta</t>
+          <t>label_UMGS45_14.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.29433343916321</v>
+        <v>0.2884445541013638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1327035273417021</v>
+        <v>0.1667510250117339</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06619222519815295</v>
+        <v>0.024341477031099</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001750648663238913</v>
+        <v>6.56245950785166e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09300502752237469</v>
+        <v>0.1108188544906316</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02894645161639208</v>
+        <v>3.591259918008792e-13</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3846442642918445</v>
+        <v>0.4096440893647469</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3846442642918445</v>
+        <v>0.4096440893647469</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -7116,32 +6360,32 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_8.fasta</t>
+          <t>label_UMGS45_17.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4152969559657705</v>
+        <v>0.6141166438776517</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1014878637227606</v>
+        <v>0.07022250585099778</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06524196489987516</v>
+        <v>0.02257068285938636</v>
       </c>
       <c r="E34" t="n">
-        <v>5.873748958907368e-05</v>
+        <v>2.220666299872542e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06943269950886073</v>
+        <v>0.04594600794589851</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02172698850262764</v>
+        <v>1.630321880460321e-09</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3267547899105162</v>
+        <v>0.2471441578357215</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4152969559657705</v>
+        <v>0.6141166438776517</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -7152,32 +6396,32 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_16.fasta</t>
+          <t>label_UMGS45_25.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6322927301701615</v>
+        <v>0.4085758057983813</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04599691344911903</v>
+        <v>0.1221058202503024</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03645183845926906</v>
+        <v>0.02863155640625414</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0002208979088312446</v>
+        <v>4.362395437590574e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03418929416120015</v>
+        <v>0.08428081674330569</v>
       </c>
       <c r="G35" t="n">
-        <v>2.128807834001256e-07</v>
+        <v>2.802581167987261e-11</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2508481129706356</v>
+        <v>0.3564060007736872</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6322927301701615</v>
+        <v>0.4085758057983813</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -7188,68 +6432,68 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_18.fasta</t>
+          <t>label_UMGS45_31.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2189834764514868</v>
+        <v>0.6198119880919867</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1198190378144379</v>
+        <v>0.06810709950511422</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09064714591235726</v>
+        <v>0.03061407062116399</v>
       </c>
       <c r="E36" t="n">
-        <v>5.356596812411011e-05</v>
+        <v>2.224184445487977e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08779975490683604</v>
+        <v>0.04344278761072771</v>
       </c>
       <c r="G36" t="n">
-        <v>8.22401324099847e-06</v>
+        <v>2.224184445487977e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.482688794933517</v>
+        <v>0.2380240541709629</v>
       </c>
       <c r="I36" t="n">
-        <v>0.482688794933517</v>
+        <v>0.6198119880919867</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
+          <t>s__Peptoniphilus_A grossensis</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_19.fasta</t>
+          <t>label_UMGS45_32.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3608135321231688</v>
+        <v>0.3326998131111172</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08677472315423579</v>
+        <v>0.143087453867464</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07881437964282394</v>
+        <v>0.08712881381809377</v>
       </c>
       <c r="E37" t="n">
-        <v>3.301806879321113e-05</v>
+        <v>4.554526368465639e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08614239498744029</v>
+        <v>0.07451938879638004</v>
       </c>
       <c r="G37" t="n">
-        <v>2.219191708638482e-05</v>
+        <v>4.554526368465654e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3873997601064516</v>
+        <v>0.3625645304068538</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3873997601064516</v>
+        <v>0.3625645304068538</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -7260,32 +6504,32 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_20.fasta</t>
+          <t>label_UMGS45_34.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4787223989834287</v>
+        <v>0.542194155526063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0642620738679423</v>
+        <v>0.0903018745788161</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06224712974048528</v>
+        <v>0.04363616376287766</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0006347811812007145</v>
+        <v>2.620955269027748e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05561721432687404</v>
+        <v>0.04861277053677482</v>
       </c>
       <c r="G38" t="n">
-        <v>2.511699490304187e-05</v>
+        <v>2.620955269027898e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3384912849051659</v>
+        <v>0.2752550355954161</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4787223989834287</v>
+        <v>0.542194155526063</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -7296,32 +6540,32 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_22.fasta</t>
+          <t>label_UMGS45_4.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2968319710742612</v>
+        <v>0.2787232656227604</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09599254743536476</v>
+        <v>0.1607123599197882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07883065593120496</v>
+        <v>0.02974988378502838</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02565432646253854</v>
+        <v>6.42487193282844e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0756462748665562</v>
+        <v>0.1193081843024226</v>
       </c>
       <c r="G39" t="n">
-        <v>6.17973637678906e-06</v>
+        <v>0.007745478316406245</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4270380444936977</v>
+        <v>0.40376082805353</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4270380444936977</v>
+        <v>0.40376082805353</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -7332,394 +6576,34 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS45_23.fasta</t>
+          <t>label_UMGS45_7.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4275749864990882</v>
+        <v>0.3547496776073971</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07444698986122336</v>
+        <v>0.1343325983511043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06251054560554052</v>
+        <v>0.03548087935991268</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003778251639335494</v>
+        <v>4.977867693687733e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06489024707105336</v>
+        <v>0.09812720229357222</v>
       </c>
       <c r="G40" t="n">
-        <v>4.781896570304197e-06</v>
+        <v>0.0004684194170051856</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3701946239025908</v>
+        <v>0.3768412229709588</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4275749864990882</v>
+        <v>0.3768412229709588</v>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_39.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.009961378121334933</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03821591515891305</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02923645342773027</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.249642484368448e-14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0009875611056822439</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.7946510262123113</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.1269476659740056</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.7946510262123113</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A senegalensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_13.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5455929109821354</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.08812938286054654</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.01650646283714592</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2.917395523475559e-14</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.05918233655202902</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.418025122694431e-07</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2905887649656017</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.5455929109821354</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_14.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.2884445541013638</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.1667510250117339</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.024341477031099</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6.56245950785166e-14</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1108188544906316</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.591259918008792e-13</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.4096440893647469</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.4096440893647469</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_17.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.6141166438776517</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.07022250585099778</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.02257068285938636</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2.220666299872542e-14</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.04594600794589851</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.630321880460321e-09</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.2471441578357215</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.6141166438776517</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_25.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.4085758057983813</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1221058202503024</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.02863155640625414</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.362395437590574e-14</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.08428081674330569</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.802581167987261e-11</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.3564060007736872</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4085758057983813</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_31.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.6198119880919867</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.06810709950511422</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.03061407062116399</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.224184445487977e-14</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.04344278761072771</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.224184445487977e-14</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2380240541709629</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.6198119880919867</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_32.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.3326998131111172</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.143087453867464</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.08712881381809377</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.554526368465639e-14</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.07451938879638004</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4.554526368465654e-14</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.3625645304068538</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.3625645304068538</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_34.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.542194155526063</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0903018745788161</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.04363616376287766</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.620955269027748e-14</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.04861277053677482</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.620955269027898e-14</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2752550355954161</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.542194155526063</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A grossensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_4.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.2787232656227604</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.1607123599197882</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.02974988378502838</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.42487193282844e-14</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.1193081843024226</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.007745478316406245</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.40376082805353</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.40376082805353</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A sp900538655</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS45_7.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.3547496776073971</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.1343325983511043</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.03548087935991268</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.977867693687733e-14</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.09812720229357222</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.0004684194170051856</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.3768412229709588</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3768412229709588</v>
-      </c>
-      <c r="J50" t="inlineStr">
         <is>
           <t>s__Peptoniphilus_A sp900538655</t>
         </is>
